--- a/Excel/テーブルレイアウト.xlsx
+++ b/Excel/テーブルレイアウト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terud\Documents\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF52EAE-42B7-4D58-B1CA-EC3AFF4EF03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE84A9-BFD7-4C92-9CDF-8F8A065AAF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{925972D2-9FE0-4239-85DA-47617F26AA0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>9班 NIAMS テーブルレイアウト</t>
     <rPh sb="1" eb="2">
@@ -355,6 +355,21 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -422,32 +437,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,15 +795,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76BFFA-5C9C-470D-AD1C-D0E532A97FBF}">
   <dimension ref="B2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="140" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.125" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
@@ -805,1389 +814,1397 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="5">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="2">
         <v>3</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="2">
         <v>4</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="2">
         <v>5</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8" t="s">
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="2">
+      <c r="F9" s="1">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="2">
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="2">
+      <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="2">
+      <c r="G20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="2">
+      <c r="H20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="5">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="2">
         <v>2</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="2">
         <v>3</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="2">
         <v>4</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="2">
         <v>5</v>
       </c>
-      <c r="P21" s="3"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="8" t="s">
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="F23" s="1">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>4</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>5</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>6</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>7</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>8</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>9</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>10</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3" t="s">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="5">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="2">
         <v>1</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="2">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="2">
         <v>3</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="2">
         <v>4</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="2">
         <v>5</v>
       </c>
-      <c r="P36" s="3"/>
+      <c r="P36" s="5"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="F37" s="1">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="F38" s="1">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>3</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>4</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="F40" s="1">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>5</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>6</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>7</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>8</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>9</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>10</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3" t="s">
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="5">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="2">
         <v>1</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="2">
         <v>2</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="2">
         <v>3</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="2">
         <v>4</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="2">
         <v>5</v>
       </c>
-      <c r="P51" s="3"/>
+      <c r="P51" s="5"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="8" t="s">
+      <c r="F52" s="1">
+        <v>8</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
+      <c r="F53" s="1">
+        <v>24</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>3</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="F54" s="1">
+        <v>8</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>4</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+      <c r="F55" s="1">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
+      <c r="F56" s="1">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>6</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
+      <c r="F57" s="1">
+        <v>24</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>7</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>8</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>9</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>10</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="B20:B21"/>
@@ -2198,16 +2215,31 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="J35:J36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/テーブルレイアウト.xlsx
+++ b/Excel/テーブルレイアウト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terud\Documents\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE84A9-BFD7-4C92-9CDF-8F8A065AAF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64790BFD-69CE-4E37-9E26-A9F43759E8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{925972D2-9FE0-4239-85DA-47617F26AA0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
   <si>
     <t>9班 NIAMS テーブルレイアウト</t>
     <rPh sb="1" eb="2">
@@ -222,19 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>免除対象資名</t>
-    <rPh sb="0" eb="4">
-      <t>メンジョタイショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TBL_QUAL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -370,6 +357,122 @@
   </si>
   <si>
     <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可</t>
+    <rPh sb="0" eb="2">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL-+自動連番</t>
+    <rPh sb="4" eb="8">
+      <t>ジドウレンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q-+自動連番</t>
+    <rPh sb="3" eb="7">
+      <t>ジドウレンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学校用メールアドレスの@g.neec.ac.jp以前</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒は氏名、教員は任意のユーザー名</t>
+    <rPh sb="0" eb="2">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大文字小文字数字を含む</t>
+    <rPh sb="0" eb="3">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学校用メールアドレス</t>
+    <rPh sb="0" eb="3">
+      <t>ガッコウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>免除対象資格名</t>
+    <rPh sb="0" eb="4">
+      <t>メンジョタイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYYMMDD形式で表記</t>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -437,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,14 +553,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76BFFA-5C9C-470D-AD1C-D0E532A97FBF}">
   <dimension ref="B2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="140" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -814,11 +920,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
@@ -897,7 +1003,7 @@
       <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -952,11 +1058,13 @@
         <v>52</v>
       </c>
       <c r="F7" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>25</v>
       </c>
@@ -965,34 +1073,40 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F8" s="1">
         <v>24</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1005,21 +1119,25 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1">
         <v>24</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1032,21 +1150,25 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
         <v>24</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1059,21 +1181,25 @@
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1207,7 +1333,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1247,7 +1373,7 @@
       <c r="I20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -1306,7 +1432,9 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1315,27 +1443,31 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1">
         <v>24</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1529,10 +1661,10 @@
     <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1572,7 +1704,7 @@
       <c r="I35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -1618,81 +1750,90 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1">
         <v>8</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="1">
         <v>8</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1">
         <v>8</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="P39" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
@@ -1705,21 +1846,25 @@
         <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1">
         <v>8</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="P40" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -1869,10 +2014,10 @@
     <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1912,7 +2057,7 @@
       <c r="I50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -1958,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>52</v>
@@ -1971,7 +2116,9 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J52" s="3" t="s">
         <v>25</v>
       </c>
@@ -1980,27 +2127,31 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
+      <c r="P52" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="1">
         <v>24</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2014,74 +2165,84 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1">
         <v>8</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="P54" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F55" s="1">
         <v>8</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
+      <c r="P55" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -2095,20 +2256,22 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57" s="1">
         <v>24</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -2195,17 +2358,28 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -2218,28 +2392,17 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:O20"/>
     <mergeCell ref="P20:P21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/テーブルレイアウト.xlsx
+++ b/Excel/テーブルレイアウト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terud\Documents\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64790BFD-69CE-4E37-9E26-A9F43759E8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC144BB-FD28-4F5E-B6C0-4F41CAF84E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{925972D2-9FE0-4239-85DA-47617F26AA0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
   <si>
     <t>9班 NIAMS テーブルレイアウト</t>
     <rPh sb="1" eb="2">
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TBL_USR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -233,10 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TBL_ATD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -277,10 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BTL_CLS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>授業名</t>
     <rPh sb="0" eb="3">
       <t>ジュギョウメイ</t>
@@ -473,6 +461,22 @@
     <rPh sb="11" eb="13">
       <t>ヒョウキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SJIS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBL_USER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBL_ATTEND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBL_CLASS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,17 +557,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,7 +903,7 @@
   <dimension ref="B2:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -920,11 +921,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
@@ -963,12 +964,14 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1003,7 +1006,7 @@
       <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -1049,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>24</v>
@@ -1063,18 +1066,18 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="7" t="s">
-        <v>62</v>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
@@ -1082,13 +1085,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
         <v>24</v>
@@ -1096,7 +1099,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1105,7 +1108,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
@@ -1113,13 +1116,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1">
         <v>24</v>
@@ -1127,7 +1130,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1136,7 +1139,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
@@ -1144,13 +1147,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1">
         <v>24</v>
@@ -1158,7 +1161,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1167,7 +1170,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
@@ -1175,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1">
         <v>8</v>
@@ -1189,7 +1192,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1198,7 +1201,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
@@ -1330,15 +1333,17 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1373,7 +1378,7 @@
       <c r="I20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -1419,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1">
         <v>8</v>
@@ -1433,10 +1438,10 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1444,7 +1449,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
@@ -1452,13 +1457,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1">
         <v>24</v>
@@ -1466,7 +1471,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1661,15 +1666,17 @@
     <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1704,7 +1711,7 @@
       <c r="I35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -1750,13 +1757,13 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F37" s="1">
         <v>8</v>
@@ -1764,7 +1771,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1773,7 +1780,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.4">
@@ -1781,13 +1788,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1">
         <v>8</v>
@@ -1795,7 +1802,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1809,13 +1816,13 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F39" s="1">
         <v>8</v>
@@ -1823,7 +1830,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1832,7 +1839,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.4">
@@ -1840,13 +1847,13 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1">
         <v>8</v>
@@ -1854,7 +1861,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1863,7 +1870,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.4">
@@ -2014,15 +2021,17 @@
     <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -2057,7 +2066,7 @@
       <c r="I50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -2103,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F52" s="1">
         <v>8</v>
@@ -2117,10 +2126,10 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2128,7 +2137,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.4">
@@ -2136,13 +2145,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F53" s="1">
         <v>24</v>
@@ -2150,7 +2159,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2165,13 +2174,13 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F54" s="1">
         <v>8</v>
@@ -2179,7 +2188,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -2188,7 +2197,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.4">
@@ -2196,13 +2205,13 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F55" s="1">
         <v>8</v>
@@ -2210,7 +2219,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -2219,7 +2228,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.4">
@@ -2227,13 +2236,13 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F56" s="1">
         <v>4</v>
@@ -2241,7 +2250,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -2256,13 +2265,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F57" s="1">
         <v>24</v>
@@ -2270,7 +2279,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -2358,28 +2367,17 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -2392,17 +2390,28 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:O20"/>
     <mergeCell ref="P20:P21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="J35:J36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/テーブルレイアウト.xlsx
+++ b/Excel/テーブルレイアウト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terud\Documents\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC144BB-FD28-4F5E-B6C0-4F41CAF84E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FBC43B-A93D-434A-901F-179B1641843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{925972D2-9FE0-4239-85DA-47617F26AA0B}"/>
   </bookViews>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -477,6 +473,10 @@
   </si>
   <si>
     <t>TBL_CLASS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -557,14 +557,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76BFFA-5C9C-470D-AD1C-D0E532A97FBF}">
   <dimension ref="B2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="88" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -921,11 +921,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
@@ -964,13 +964,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1006,7 +1006,7 @@
       <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -1061,12 +1061,12 @@
         <v>49</v>
       </c>
       <c r="F7" s="1">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>24</v>
@@ -1077,7 +1077,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
@@ -1085,21 +1085,21 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" s="1">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1108,7 +1108,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
@@ -1125,12 +1125,12 @@
         <v>49</v>
       </c>
       <c r="F9" s="1">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1139,7 +1139,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
@@ -1156,12 +1156,12 @@
         <v>49</v>
       </c>
       <c r="F10" s="1">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
@@ -1187,12 +1187,12 @@
         <v>48</v>
       </c>
       <c r="F11" s="1">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1201,7 +1201,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
@@ -1342,7 +1342,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1378,7 +1378,7 @@
       <c r="I20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -1433,12 +1433,12 @@
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>24</v>
@@ -1449,7 +1449,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
@@ -1457,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
@@ -1466,12 +1466,12 @@
         <v>49</v>
       </c>
       <c r="F23" s="1">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1669,13 +1669,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1711,7 +1711,7 @@
       <c r="I35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -1763,15 +1763,15 @@
         <v>32</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1">
-        <v>8</v>
+        <v>1024</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.4">
@@ -1797,12 +1797,12 @@
         <v>48</v>
       </c>
       <c r="F38" s="1">
-        <v>8</v>
+        <v>1024</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1825,12 +1825,12 @@
         <v>48</v>
       </c>
       <c r="F39" s="1">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1839,7 +1839,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.4">
@@ -1856,12 +1856,12 @@
         <v>48</v>
       </c>
       <c r="F40" s="1">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1870,7 +1870,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.4">
@@ -2024,13 +2024,13 @@
         <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2066,7 +2066,7 @@
       <c r="I50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -2121,12 +2121,12 @@
         <v>49</v>
       </c>
       <c r="F52" s="1">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>24</v>
@@ -2137,7 +2137,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.4">
@@ -2154,12 +2154,12 @@
         <v>49</v>
       </c>
       <c r="F53" s="1">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2180,15 +2180,15 @@
         <v>41</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F54" s="1">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -2197,7 +2197,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.4">
@@ -2211,15 +2211,15 @@
         <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F55" s="1">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -2228,7 +2228,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.4">
@@ -2250,7 +2250,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -2279,7 +2279,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -2367,17 +2367,28 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -2390,28 +2401,17 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:O20"/>
     <mergeCell ref="P20:P21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/テーブルレイアウト.xlsx
+++ b/Excel/テーブルレイアウト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terud\Documents\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FBC43B-A93D-434A-901F-179B1641843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C076CBDB-2ACF-49FF-B198-C695443CB24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{925972D2-9FE0-4239-85DA-47617F26AA0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>9班 NIAMS テーブルレイアウト</t>
     <rPh sb="1" eb="2">
@@ -478,6 +478,20 @@
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATD_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:出席、2:欠席、3:遅刻・早退、4:公欠</t>
   </si>
 </sst>
 </file>
@@ -557,14 +571,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,7 +917,7 @@
   <dimension ref="B2:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -921,11 +935,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
@@ -1006,7 +1020,7 @@
       <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -1378,7 +1392,7 @@
       <c r="I20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -1711,7 +1725,7 @@
       <c r="I35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -1877,20 +1891,32 @@
       <c r="B41" s="1">
         <v>5</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="1">
+        <v>16</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="P41" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
@@ -1898,7 +1924,6 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2066,7 +2091,7 @@
       <c r="I50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -2245,7 +2270,7 @@
         <v>48</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2367,28 +2392,17 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -2401,17 +2415,28 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:O20"/>
     <mergeCell ref="P20:P21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="J35:J36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/テーブルレイアウト.xlsx
+++ b/Excel/テーブルレイアウト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terud\Documents\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB753B-24A5-42A0-A75C-A44DE902D201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE58862-9F72-4BAB-948D-32B6385D11A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{925972D2-9FE0-4239-85DA-47617F26AA0B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12645" activeTab="4" xr2:uid="{925972D2-9FE0-4239-85DA-47617F26AA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="MST_USER" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -204,10 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -330,13 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>USER_NAME</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -386,25 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>生徒は氏名、教員は任意のユーザー名</t>
-    <rPh sb="0" eb="2">
-      <t>セイト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大文字小文字数字を含む</t>
     <rPh sb="0" eb="3">
       <t>オオモジ</t>
@@ -521,6 +487,38 @@
   </si>
   <si>
     <t>MST_EXEM_QUAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザテーブル</t>
+  </si>
+  <si>
+    <t>ユーザID</t>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒は氏名、教員は任意のユーザ名</t>
+    <rPh sb="0" eb="2">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1005,16 +1003,16 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1096,13 +1094,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
@@ -1110,10 +1108,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1121,7 +1119,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
@@ -1129,13 +1127,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1">
         <v>1024</v>
@@ -1143,7 +1141,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1152,7 +1150,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
@@ -1160,13 +1158,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1">
         <v>16</v>
@@ -1174,7 +1172,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1183,7 +1181,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
@@ -1191,13 +1189,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1">
         <v>128</v>
@@ -1205,7 +1203,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1214,7 +1212,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
@@ -1408,16 +1406,16 @@
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1499,13 +1497,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
         <v>32</v>
@@ -1513,7 +1511,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="1"/>
@@ -1522,7 +1520,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
@@ -1530,13 +1528,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1">
         <v>32</v>
@@ -1544,7 +1542,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1553,7 +1551,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
@@ -1784,16 +1782,16 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1875,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>32</v>
@@ -1889,10 +1887,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1900,7 +1898,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
@@ -1908,13 +1906,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
         <v>64</v>
@@ -1922,7 +1920,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2085,17 +2083,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2159,16 +2157,16 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2250,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>32</v>
@@ -2264,7 +2262,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="1"/>
@@ -2273,7 +2271,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
@@ -2281,13 +2279,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
         <v>1024</v>
@@ -2295,7 +2293,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2304,7 +2302,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
@@ -2460,17 +2458,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2481,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A184D99B-7D4A-44F3-9CA6-42C0F583415B}">
   <dimension ref="B3:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2534,16 +2532,16 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2625,13 +2623,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2639,10 +2637,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2650,7 +2648,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
@@ -2658,13 +2656,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
@@ -2672,10 +2670,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2689,13 +2687,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1">
         <v>1024</v>
@@ -2703,10 +2701,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2714,7 +2712,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
@@ -2722,13 +2720,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1">
         <v>10</v>
@@ -2736,10 +2734,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2747,7 +2745,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
@@ -2755,13 +2753,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
@@ -2769,7 +2767,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2778,7 +2776,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
@@ -2899,7 +2897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E906440E-08CB-46A7-A2EA-9D2092003FD0}">
   <dimension ref="B3:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -2952,16 +2950,16 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3043,13 +3041,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>1024</v>
@@ -3057,10 +3055,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3068,7 +3066,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
@@ -3076,13 +3074,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
         <v>64</v>
@@ -3090,7 +3088,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3105,13 +3103,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -3119,7 +3117,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3128,7 +3126,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
@@ -3136,13 +3134,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -3150,7 +3148,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3159,7 +3157,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
@@ -3167,13 +3165,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
@@ -3181,7 +3179,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3196,13 +3194,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F12" s="1">
         <v>24</v>
@@ -3210,7 +3208,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3298,17 +3296,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:O5"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
